--- a/biology/Zoologie/Ctenocystoidea/Ctenocystoidea.xlsx
+++ b/biology/Zoologie/Ctenocystoidea/Ctenocystoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenocystoïdes
 Les Ctenocystoidea (Ctenocystoïdes en français) sont une classe d'échinodermes du Paléozoïque, connus uniquement sous forme fossile, attribué au morpho-groupe des carpoïdes, ou Homalozoa.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des Ctenocystoidea a été créée en 1969 par les paléontologues américains Richard A. Robison et James Sprinkle (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des Ctenocystoidea a été créée en 1969 par les paléontologues américains Richard A. Robison et James Sprinkle (d).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctenocystoïdes forment une petite classe d'échinodermes à symétrie bilatérale du Cambrien médian, décrite en 1969[2]. Les fossiles attribués à ce groupe se distinguent des autres Homalozoa par l'absence d'appendice : leur corps est aplati et sub-quadrangulaire, constitué de grosses plaques marginales et d'un dallage dorsal de plaques calcaires plus petites (en cela, ils peuvent rappeler les Cyclocystoidea). Leur trait le plus caractéristique est l'organe en forme de peigne (d'où le nom scientifique) qui se trouve à l'avant de l'animal, constitué de plaques articulées, formant un conduit ambulacraire probablement cilié et menant à la bouche. Le madréporite est situé à l'avant-droite de l'animal, sur une plaque dorsale, et l'arrière porte une pyramide anale. Le mécanisme moteur de ces animaux est encore peu clair[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctenocystoïdes forment une petite classe d'échinodermes à symétrie bilatérale du Cambrien médian, décrite en 1969. Les fossiles attribués à ce groupe se distinguent des autres Homalozoa par l'absence d'appendice : leur corps est aplati et sub-quadrangulaire, constitué de grosses plaques marginales et d'un dallage dorsal de plaques calcaires plus petites (en cela, ils peuvent rappeler les Cyclocystoidea). Leur trait le plus caractéristique est l'organe en forme de peigne (d'où le nom scientifique) qui se trouve à l'avant de l'animal, constitué de plaques articulées, formant un conduit ambulacraire probablement cilié et menant à la bouche. Le madréporite est situé à l'avant-droite de l'animal, sur une plaque dorsale, et l'arrière porte une pyramide anale. Le mécanisme moteur de ces animaux est encore peu clair. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Registre fossile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles de Ctenocystoïdes proviennent principalement du Cambrien médian de l'Amérique du Nord et de la Bohème. Les fossiles s'étendent de 513 à 455,8 millions d'années[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de Ctenocystoïdes proviennent principalement du Cambrien médian de l'Amérique du Nord et de la Bohème. Les fossiles s'étendent de 513 à 455,8 millions d'années. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 juillet 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 juillet 2021) :
 ordre † Azonida Domínguez-Alonso, 1999
 ordre † Ctenocystida Robison &amp; Sprinkle, 1969
 ordre † Monozonida Domínguez-Alonso, 1999
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Richard A. Robison et James Sprinkle, « Ctenocystoidea: new class of primitive echinoderms », Science, Amérique septentrionale, AAAS, vol. 166, no 3912,‎ 1er décembre 1969, p. 1512-1514 (ISSN 0036-8075 et 1095-9203, OCLC 1644869, PMID 17742852, DOI 10.1126/SCIENCE.166.3912.1512)</t>
         </is>
